--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori4/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori4/17/word_level_predictions_17.xlsx
@@ -11497,7 +11497,7 @@
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G213" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11521,7 +11521,7 @@
       </c>
       <c r="L213" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -14646,156 +14646,156 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="2" t="n">
+      <c r="A274" t="n">
         <v>15</v>
       </c>
-      <c r="B274" s="2" t="inlineStr">
+      <c r="B274" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C274" s="2" t="inlineStr">
+      <c r="C274" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D274" s="2" t="n">
+      <c r="D274" t="n">
         <v>4</v>
       </c>
-      <c r="E274" s="2" t="inlineStr">
+      <c r="E274" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F274" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G274" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H274" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I274" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J274" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K274" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L274" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G274" t="b">
+        <v>1</v>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I274" t="b">
+        <v>1</v>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K274" t="b">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="2" t="n">
+      <c r="A275" t="n">
         <v>15</v>
       </c>
-      <c r="B275" s="2" t="inlineStr">
+      <c r="B275" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C275" s="2" t="inlineStr">
+      <c r="C275" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D275" s="2" t="n">
+      <c r="D275" t="n">
         <v>5</v>
       </c>
-      <c r="E275" s="2" t="inlineStr">
+      <c r="E275" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F275" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G275" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H275" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I275" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J275" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K275" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L275" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G275" t="b">
+        <v>1</v>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I275" t="b">
+        <v>1</v>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K275" t="b">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="2" t="n">
+      <c r="A276" t="n">
         <v>15</v>
       </c>
-      <c r="B276" s="2" t="inlineStr">
+      <c r="B276" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C276" s="2" t="inlineStr">
+      <c r="C276" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D276" s="2" t="n">
+      <c r="D276" t="n">
         <v>6</v>
       </c>
-      <c r="E276" s="2" t="inlineStr">
+      <c r="E276" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F276" s="2" t="inlineStr">
+      <c r="F276" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G276" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H276" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I276" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J276" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K276" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L276" s="2" t="inlineStr">
+      <c r="G276" t="b">
+        <v>1</v>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I276" t="b">
+        <v>1</v>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K276" t="b">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -15218,210 +15218,210 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="n">
+      <c r="A285" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B285" t="inlineStr">
+      <c r="B285" s="2" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C285" t="inlineStr">
+      <c r="C285" s="2" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D285" t="n">
+      <c r="D285" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E285" t="inlineStr">
+      <c r="E285" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F285" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G285" t="b">
-        <v>1</v>
-      </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I285" t="b">
-        <v>1</v>
-      </c>
-      <c r="J285" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K285" t="b">
-        <v>1</v>
-      </c>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F285" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G285" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H285" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I285" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J285" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K285" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L285" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="n">
+      <c r="A286" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B286" t="inlineStr">
+      <c r="B286" s="2" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C286" t="inlineStr">
+      <c r="C286" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D286" t="n">
+      <c r="D286" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E286" t="inlineStr">
+      <c r="E286" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F286" t="inlineStr">
+      <c r="F286" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G286" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H286" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I286" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J286" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K286" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L286" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B287" s="2" t="inlineStr">
+        <is>
+          <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C287" s="2" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="D287" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E287" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G286" t="b">
-        <v>1</v>
-      </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I286" t="b">
-        <v>1</v>
-      </c>
-      <c r="J286" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K286" t="b">
-        <v>1</v>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="n">
+      <c r="F287" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G287" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H287" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I287" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J287" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K287" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L287" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B287" t="inlineStr">
+      <c r="B288" s="2" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="D287" t="n">
-        <v>5</v>
-      </c>
-      <c r="E287" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F287" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G287" t="b">
-        <v>1</v>
-      </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I287" t="b">
-        <v>1</v>
-      </c>
-      <c r="J287" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K287" t="b">
-        <v>1</v>
-      </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="n">
-        <v>16</v>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C288" t="inlineStr">
+      <c r="C288" s="2" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D288" t="n">
+      <c r="D288" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E288" t="inlineStr">
+      <c r="E288" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F288" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G288" t="b">
-        <v>1</v>
-      </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I288" t="b">
-        <v>1</v>
-      </c>
-      <c r="J288" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K288" t="b">
-        <v>1</v>
-      </c>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F288" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G288" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H288" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I288" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J288" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K288" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L288" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori4/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori4/17/word_level_predictions_17.xlsx
@@ -11497,7 +11497,7 @@
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G213" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11521,7 +11521,7 @@
       </c>
       <c r="L213" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -14646,156 +14646,156 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="n">
+      <c r="A274" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B274" t="inlineStr">
+      <c r="B274" s="2" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C274" t="inlineStr">
+      <c r="C274" s="2" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D274" t="n">
+      <c r="D274" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E274" t="inlineStr">
+      <c r="E274" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G274" t="b">
-        <v>1</v>
-      </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I274" t="b">
-        <v>1</v>
-      </c>
-      <c r="J274" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K274" t="b">
-        <v>1</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F274" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G274" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H274" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I274" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J274" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K274" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L274" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="n">
+      <c r="A275" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B275" t="inlineStr">
+      <c r="B275" s="2" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C275" t="inlineStr">
+      <c r="C275" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D275" t="n">
+      <c r="D275" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E275" t="inlineStr">
+      <c r="E275" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G275" t="b">
-        <v>1</v>
-      </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I275" t="b">
-        <v>1</v>
-      </c>
-      <c r="J275" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K275" t="b">
-        <v>1</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F275" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G275" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H275" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I275" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J275" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K275" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L275" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="n">
+      <c r="A276" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B276" t="inlineStr">
+      <c r="B276" s="2" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C276" t="inlineStr">
+      <c r="C276" s="2" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D276" t="n">
+      <c r="D276" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E276" t="inlineStr">
+      <c r="E276" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F276" t="inlineStr">
+      <c r="F276" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G276" t="b">
-        <v>1</v>
-      </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I276" t="b">
-        <v>1</v>
-      </c>
-      <c r="J276" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K276" t="b">
-        <v>1</v>
-      </c>
-      <c r="L276" t="inlineStr">
+      <c r="G276" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H276" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I276" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J276" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K276" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L276" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -15218,210 +15218,210 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="2" t="n">
+      <c r="A285" t="n">
         <v>16</v>
       </c>
-      <c r="B285" s="2" t="inlineStr">
+      <c r="B285" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C285" s="2" t="inlineStr">
+      <c r="C285" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D285" s="2" t="n">
+      <c r="D285" t="n">
         <v>3</v>
       </c>
-      <c r="E285" s="2" t="inlineStr">
+      <c r="E285" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F285" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G285" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H285" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I285" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J285" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K285" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L285" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G285" t="b">
+        <v>1</v>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I285" t="b">
+        <v>1</v>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K285" t="b">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="2" t="n">
+      <c r="A286" t="n">
         <v>16</v>
       </c>
-      <c r="B286" s="2" t="inlineStr">
+      <c r="B286" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C286" s="2" t="inlineStr">
+      <c r="C286" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D286" s="2" t="n">
+      <c r="D286" t="n">
         <v>4</v>
       </c>
-      <c r="E286" s="2" t="inlineStr">
+      <c r="E286" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F286" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G286" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H286" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I286" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J286" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K286" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L286" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G286" t="b">
+        <v>1</v>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I286" t="b">
+        <v>1</v>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K286" t="b">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="2" t="n">
+      <c r="A287" t="n">
         <v>16</v>
       </c>
-      <c r="B287" s="2" t="inlineStr">
+      <c r="B287" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C287" s="2" t="inlineStr">
+      <c r="C287" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D287" s="2" t="n">
+      <c r="D287" t="n">
         <v>5</v>
       </c>
-      <c r="E287" s="2" t="inlineStr">
+      <c r="E287" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F287" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G287" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H287" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I287" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J287" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K287" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L287" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G287" t="b">
+        <v>1</v>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I287" t="b">
+        <v>1</v>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K287" t="b">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="2" t="n">
+      <c r="A288" t="n">
         <v>16</v>
       </c>
-      <c r="B288" s="2" t="inlineStr">
+      <c r="B288" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C288" s="2" t="inlineStr">
+      <c r="C288" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D288" s="2" t="n">
+      <c r="D288" t="n">
         <v>6</v>
       </c>
-      <c r="E288" s="2" t="inlineStr">
+      <c r="E288" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F288" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G288" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H288" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I288" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J288" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K288" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L288" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G288" t="b">
+        <v>1</v>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I288" t="b">
+        <v>1</v>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K288" t="b">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
